--- a/InputParameters.xlsx
+++ b/InputParameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thackray/Dropbox/Harvard/foodweb_bioaccumulation_model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thackray/Dropbox/git/foodweb/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="991" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="FeedPreferencesMax" sheetId="3" r:id="rId3"/>
     <sheet name="FeedPreferences" sheetId="4" r:id="rId4"/>
     <sheet name="Chla" sheetId="5" r:id="rId5"/>
-    <sheet name="1970FeedPreferences" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">FeedPreferences!$A$2:$AA$26</definedName>
@@ -25,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">FeedPreferencesMin!$A$2:$AB$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Parameters!$A$1:$Z$52</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="120">
   <si>
     <t>MeHg Bioaccumulation Model</t>
   </si>
@@ -454,7 +453,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,20 +492,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC3D69B"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFDCE6F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFDEADA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FFC4D79B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4D79B"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FFC3D69B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -583,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -604,42 +609,44 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,27 +995,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ54"/>
+  <dimension ref="A1:ALR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="26" width="8.83203125" style="1"/>
-    <col min="27" max="1024" width="8.83203125" style="2"/>
+    <col min="27" max="1006" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1006" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1006" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2"/>
     </row>
-    <row r="3" spans="1:1024" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1006" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1006" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1006" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1043,23 +1050,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1006" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1006" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:1024" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1006" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:1006" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1006" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1074,7 +1081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1006" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -1086,9 +1093,8 @@
       <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G11"/>
     </row>
-    <row r="12" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1006" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
@@ -1099,9 +1105,8 @@
       <c r="D12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G12"/>
     </row>
-    <row r="13" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1006" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
@@ -1114,9 +1119,8 @@
       <c r="D13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G13"/>
     </row>
-    <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1006" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
@@ -1129,35 +1133,35 @@
       <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
       <c r="AH14"/>
       <c r="AI14"/>
       <c r="AJ14"/>
@@ -2131,59 +2135,41 @@
       <c r="ALP14"/>
       <c r="ALQ14"/>
       <c r="ALR14"/>
-      <c r="ALS14"/>
-      <c r="ALT14"/>
-      <c r="ALU14"/>
-      <c r="ALV14"/>
-      <c r="ALW14"/>
-      <c r="ALX14"/>
-      <c r="ALY14"/>
-      <c r="ALZ14"/>
-      <c r="AMA14"/>
-      <c r="AMB14"/>
-      <c r="AMC14"/>
-      <c r="AMD14"/>
-      <c r="AME14"/>
-      <c r="AMF14"/>
-      <c r="AMG14"/>
-      <c r="AMH14"/>
-      <c r="AMI14"/>
-      <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1006" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
-      <c r="B15" s="15"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
       <c r="AH15"/>
       <c r="AI15"/>
       <c r="AJ15"/>
@@ -3157,26 +3143,8 @@
       <c r="ALP15"/>
       <c r="ALQ15"/>
       <c r="ALR15"/>
-      <c r="ALS15"/>
-      <c r="ALT15"/>
-      <c r="ALU15"/>
-      <c r="ALV15"/>
-      <c r="ALW15"/>
-      <c r="ALX15"/>
-      <c r="ALY15"/>
-      <c r="ALZ15"/>
-      <c r="AMA15"/>
-      <c r="AMB15"/>
-      <c r="AMC15"/>
-      <c r="AMD15"/>
-      <c r="AME15"/>
-      <c r="AMF15"/>
-      <c r="AMG15"/>
-      <c r="AMH15"/>
-      <c r="AMI15"/>
-      <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1006" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
@@ -3187,35 +3155,35 @@
       <c r="D16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
       <c r="AH16"/>
       <c r="AI16"/>
       <c r="AJ16"/>
@@ -4189,26 +4157,8 @@
       <c r="ALP16"/>
       <c r="ALQ16"/>
       <c r="ALR16"/>
-      <c r="ALS16"/>
-      <c r="ALT16"/>
-      <c r="ALU16"/>
-      <c r="ALV16"/>
-      <c r="ALW16"/>
-      <c r="ALX16"/>
-      <c r="ALY16"/>
-      <c r="ALZ16"/>
-      <c r="AMA16"/>
-      <c r="AMB16"/>
-      <c r="AMC16"/>
-      <c r="AMD16"/>
-      <c r="AME16"/>
-      <c r="AMF16"/>
-      <c r="AMG16"/>
-      <c r="AMH16"/>
-      <c r="AMI16"/>
-      <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1006" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
@@ -4219,35 +4169,35 @@
       <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
-      <c r="AG17"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
       <c r="AH17"/>
       <c r="AI17"/>
       <c r="AJ17"/>
@@ -5221,59 +5171,41 @@
       <c r="ALP17"/>
       <c r="ALQ17"/>
       <c r="ALR17"/>
-      <c r="ALS17"/>
-      <c r="ALT17"/>
-      <c r="ALU17"/>
-      <c r="ALV17"/>
-      <c r="ALW17"/>
-      <c r="ALX17"/>
-      <c r="ALY17"/>
-      <c r="ALZ17"/>
-      <c r="AMA17"/>
-      <c r="AMB17"/>
-      <c r="AMC17"/>
-      <c r="AMD17"/>
-      <c r="AME17"/>
-      <c r="AMF17"/>
-      <c r="AMG17"/>
-      <c r="AMH17"/>
-      <c r="AMI17"/>
-      <c r="AMJ17"/>
     </row>
-    <row r="18" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1006" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="13"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AG18"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
       <c r="AH18"/>
       <c r="AI18"/>
       <c r="AJ18"/>
@@ -6247,59 +6179,41 @@
       <c r="ALP18"/>
       <c r="ALQ18"/>
       <c r="ALR18"/>
-      <c r="ALS18"/>
-      <c r="ALT18"/>
-      <c r="ALU18"/>
-      <c r="ALV18"/>
-      <c r="ALW18"/>
-      <c r="ALX18"/>
-      <c r="ALY18"/>
-      <c r="ALZ18"/>
-      <c r="AMA18"/>
-      <c r="AMB18"/>
-      <c r="AMC18"/>
-      <c r="AMD18"/>
-      <c r="AME18"/>
-      <c r="AMF18"/>
-      <c r="AMG18"/>
-      <c r="AMH18"/>
-      <c r="AMI18"/>
-      <c r="AMJ18"/>
     </row>
-    <row r="19" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1006" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="13"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-      <c r="AE19"/>
-      <c r="AF19"/>
-      <c r="AG19"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
       <c r="AH19"/>
       <c r="AI19"/>
       <c r="AJ19"/>
@@ -7273,59 +7187,41 @@
       <c r="ALP19"/>
       <c r="ALQ19"/>
       <c r="ALR19"/>
-      <c r="ALS19"/>
-      <c r="ALT19"/>
-      <c r="ALU19"/>
-      <c r="ALV19"/>
-      <c r="ALW19"/>
-      <c r="ALX19"/>
-      <c r="ALY19"/>
-      <c r="ALZ19"/>
-      <c r="AMA19"/>
-      <c r="AMB19"/>
-      <c r="AMC19"/>
-      <c r="AMD19"/>
-      <c r="AME19"/>
-      <c r="AMF19"/>
-      <c r="AMG19"/>
-      <c r="AMH19"/>
-      <c r="AMI19"/>
-      <c r="AMJ19"/>
     </row>
-    <row r="20" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1006" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
-      <c r="AG20"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
       <c r="AH20"/>
       <c r="AI20"/>
       <c r="AJ20"/>
@@ -8299,59 +8195,41 @@
       <c r="ALP20"/>
       <c r="ALQ20"/>
       <c r="ALR20"/>
-      <c r="ALS20"/>
-      <c r="ALT20"/>
-      <c r="ALU20"/>
-      <c r="ALV20"/>
-      <c r="ALW20"/>
-      <c r="ALX20"/>
-      <c r="ALY20"/>
-      <c r="ALZ20"/>
-      <c r="AMA20"/>
-      <c r="AMB20"/>
-      <c r="AMC20"/>
-      <c r="AMD20"/>
-      <c r="AME20"/>
-      <c r="AMF20"/>
-      <c r="AMG20"/>
-      <c r="AMH20"/>
-      <c r="AMI20"/>
-      <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1006" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AG21"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
       <c r="AH21"/>
       <c r="AI21"/>
       <c r="AJ21"/>
@@ -9325,26 +9203,8 @@
       <c r="ALP21"/>
       <c r="ALQ21"/>
       <c r="ALR21"/>
-      <c r="ALS21"/>
-      <c r="ALT21"/>
-      <c r="ALU21"/>
-      <c r="ALV21"/>
-      <c r="ALW21"/>
-      <c r="ALX21"/>
-      <c r="ALY21"/>
-      <c r="ALZ21"/>
-      <c r="AMA21"/>
-      <c r="AMB21"/>
-      <c r="AMC21"/>
-      <c r="AMD21"/>
-      <c r="AME21"/>
-      <c r="AMF21"/>
-      <c r="AMG21"/>
-      <c r="AMH21"/>
-      <c r="AMI21"/>
-      <c r="AMJ21"/>
     </row>
-    <row r="22" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1006" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
@@ -9356,35 +9216,35 @@
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
-      <c r="AE22"/>
-      <c r="AF22"/>
-      <c r="AG22"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
       <c r="AH22"/>
       <c r="AI22"/>
       <c r="AJ22"/>
@@ -10358,26 +10218,8 @@
       <c r="ALP22"/>
       <c r="ALQ22"/>
       <c r="ALR22"/>
-      <c r="ALS22"/>
-      <c r="ALT22"/>
-      <c r="ALU22"/>
-      <c r="ALV22"/>
-      <c r="ALW22"/>
-      <c r="ALX22"/>
-      <c r="ALY22"/>
-      <c r="ALZ22"/>
-      <c r="AMA22"/>
-      <c r="AMB22"/>
-      <c r="AMC22"/>
-      <c r="AMD22"/>
-      <c r="AME22"/>
-      <c r="AMF22"/>
-      <c r="AMG22"/>
-      <c r="AMH22"/>
-      <c r="AMI22"/>
-      <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1006" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>28</v>
       </c>
@@ -10389,35 +10231,35 @@
       <c r="D23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
-      <c r="AE23"/>
-      <c r="AF23"/>
-      <c r="AG23"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
       <c r="AH23"/>
       <c r="AI23"/>
       <c r="AJ23"/>
@@ -11391,26 +11233,8 @@
       <c r="ALP23"/>
       <c r="ALQ23"/>
       <c r="ALR23"/>
-      <c r="ALS23"/>
-      <c r="ALT23"/>
-      <c r="ALU23"/>
-      <c r="ALV23"/>
-      <c r="ALW23"/>
-      <c r="ALX23"/>
-      <c r="ALY23"/>
-      <c r="ALZ23"/>
-      <c r="AMA23"/>
-      <c r="AMB23"/>
-      <c r="AMC23"/>
-      <c r="AMD23"/>
-      <c r="AME23"/>
-      <c r="AMF23"/>
-      <c r="AMG23"/>
-      <c r="AMH23"/>
-      <c r="AMI23"/>
-      <c r="AMJ23"/>
     </row>
-    <row r="24" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1006" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>30</v>
       </c>
@@ -11422,35 +11246,35 @@
       <c r="D24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-      <c r="AE24"/>
-      <c r="AF24"/>
-      <c r="AG24"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
       <c r="AH24"/>
       <c r="AI24"/>
       <c r="AJ24"/>
@@ -12424,75 +12248,57 @@
       <c r="ALP24"/>
       <c r="ALQ24"/>
       <c r="ALR24"/>
-      <c r="ALS24"/>
-      <c r="ALT24"/>
-      <c r="ALU24"/>
-      <c r="ALV24"/>
-      <c r="ALW24"/>
-      <c r="ALX24"/>
-      <c r="ALY24"/>
-      <c r="ALZ24"/>
-      <c r="AMA24"/>
-      <c r="AMB24"/>
-      <c r="AMC24"/>
-      <c r="AMD24"/>
-      <c r="AME24"/>
-      <c r="AMF24"/>
-      <c r="AMG24"/>
-      <c r="AMH24"/>
-      <c r="AMI24"/>
-      <c r="AMJ24"/>
     </row>
-    <row r="25" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:1024" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1006" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:1006" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:1024" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="51" t="s">
+    <row r="27" spans="1:1006" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="51" t="s">
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="53" t="s">
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53" t="s">
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
       <c r="X27" s="17"/>
-      <c r="AA27" s="50" t="s">
+      <c r="AA27" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
       <c r="AE27" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:1024" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1006" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>40</v>
       </c>
@@ -12587,11 +12393,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:1024" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:1006" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="36">
         <v>1</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="36" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="15"/>
@@ -12611,15 +12417,15 @@
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
-      <c r="T29" s="20">
+      <c r="T29" s="38">
         <v>1.6</v>
       </c>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
-      <c r="Z29" s="22"/>
+      <c r="Z29" s="21"/>
       <c r="AA29" s="15">
         <v>0</v>
       </c>
@@ -12632,15 +12438,15 @@
       <c r="AD29" s="15">
         <v>0</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AE29" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1024" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:1006" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="36">
         <v>2</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="36" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="15"/>
@@ -12660,15 +12466,15 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
-      <c r="T30" s="20">
+      <c r="T30" s="38">
         <v>1.6</v>
       </c>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
-      <c r="Z30" s="22"/>
+      <c r="Z30" s="21"/>
       <c r="AA30" s="15">
         <v>0</v>
       </c>
@@ -12681,15 +12487,15 @@
       <c r="AD30" s="15">
         <v>0</v>
       </c>
-      <c r="AE30" s="1">
+      <c r="AE30" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1024" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:1006" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36">
         <v>3</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="36" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="15"/>
@@ -12709,15 +12515,15 @@
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
-      <c r="T31" s="20">
+      <c r="T31" s="38">
         <v>1.6</v>
       </c>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
-      <c r="Z31" s="22"/>
+      <c r="Z31" s="21"/>
       <c r="AA31" s="15">
         <v>0</v>
       </c>
@@ -12730,15 +12536,15 @@
       <c r="AD31" s="15">
         <v>0</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AE31" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:1006" x14ac:dyDescent="0.2">
+      <c r="A32" s="36">
         <v>4</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="36" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="15"/>
@@ -12756,2140 +12562,2140 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="R32" s="15">
+      <c r="R32" s="35">
         <v>15</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="S32" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="T32" s="20">
+      <c r="T32" s="38">
         <f>1.64-(1.64*1/100)</f>
         <v>1.6235999999999999</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U32" s="36">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V32" s="36">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="W32" s="1">
+      <c r="W32" s="36">
         <f>0.6</f>
         <v>0.6</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X32" s="36">
         <v>1E-3</v>
       </c>
-      <c r="Y32" s="24">
+      <c r="Y32" s="39">
         <v>6.2352931367187798E-18</v>
       </c>
-      <c r="Z32" s="25">
+      <c r="Z32" s="40">
         <v>0.5</v>
       </c>
-      <c r="AA32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="1">
+      <c r="AA32" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="36">
         <v>5</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="36">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="36">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="36">
         <v>2.1</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="36">
         <v>0.65</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="36">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="36">
         <v>-0.2</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="36">
         <v>2.1</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="36">
         <v>0.15</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="36">
         <v>2</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="36">
         <v>0.158</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33" s="36">
         <v>15</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="T33" s="20">
+      <c r="T33" s="38">
         <f>3.4-(3.4*1/100)</f>
         <v>3.3660000000000001</v>
       </c>
-      <c r="U33" s="1">
+      <c r="U33" s="36">
         <v>0.54</v>
       </c>
-      <c r="V33" s="1">
+      <c r="V33" s="36">
         <v>2.97</v>
       </c>
-      <c r="W33" s="1">
+      <c r="W33" s="36">
         <v>0.85</v>
       </c>
-      <c r="X33" s="1">
+      <c r="X33" s="36">
         <v>1E-3</v>
       </c>
-      <c r="Y33" s="24">
+      <c r="Y33" s="39">
         <v>6.2352931367187798E-18</v>
       </c>
-      <c r="Z33" s="25">
+      <c r="Z33" s="40">
         <v>6</v>
       </c>
-      <c r="AA33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="1">
+      <c r="AA33" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="36">
         <v>6</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="35">
         <v>0.1</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="41">
         <v>-0.39</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="35">
         <v>2.1</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="35">
         <v>0.65</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="35">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="41">
         <v>-0.25</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="35">
         <v>2.1</v>
       </c>
-      <c r="J34" s="26">
+      <c r="J34" s="41">
         <v>0.28499999999999998</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34" s="41">
         <v>3</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="35">
         <v>0.315</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="35">
         <v>-0.222</v>
       </c>
-      <c r="N34" s="26">
+      <c r="N34" s="41">
         <v>0.88</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P34" s="15">
+      <c r="P34" s="35">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q34" s="15">
+      <c r="Q34" s="35">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34" s="36">
         <v>15</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="S34" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="T34" s="20">
+      <c r="T34" s="38">
         <v>1.5</v>
       </c>
-      <c r="U34" s="27">
+      <c r="U34" s="42">
         <v>9.0157113760595701E-8</v>
       </c>
-      <c r="V34" s="28">
+      <c r="V34" s="43">
         <v>3.8997999999999999</v>
       </c>
-      <c r="W34" s="1">
+      <c r="W34" s="36">
         <v>0.65</v>
       </c>
-      <c r="X34" s="1">
+      <c r="X34" s="36">
         <v>1.4E-2</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="Y34" s="36">
         <v>1E-3</v>
       </c>
-      <c r="Z34" s="25">
+      <c r="Z34" s="40">
         <v>18</v>
       </c>
-      <c r="AA34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="1">
+      <c r="AA34" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="36">
         <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="36">
         <v>7</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="36">
         <v>0.36</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="36">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="36">
         <v>2.1</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="36">
         <v>0.65</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="36">
         <v>0.04</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="36">
         <v>-0.2</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="36">
         <v>2.1</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="36">
         <v>0.15</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="36">
         <v>2</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="36">
         <v>0.158</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35" s="36">
         <v>12</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="S35" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="T35" s="20">
+      <c r="T35" s="38">
         <v>1.32</v>
       </c>
-      <c r="U35" s="27">
+      <c r="U35" s="42">
         <v>1.11173172728159E-5</v>
       </c>
-      <c r="V35" s="28">
+      <c r="V35" s="43">
         <v>2.5089999999999999</v>
       </c>
-      <c r="W35" s="1">
+      <c r="W35" s="36">
         <v>0.85</v>
       </c>
-      <c r="X35" s="1">
+      <c r="X35" s="36">
         <v>1E-3</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="Y35" s="36">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="Z35" s="25">
+      <c r="Z35" s="40">
         <v>10</v>
       </c>
-      <c r="AA35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="1">
+      <c r="AA35" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="36">
         <v>8</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="15">
-        <v>0</v>
-      </c>
-      <c r="D36" s="15">
-        <v>0</v>
-      </c>
-      <c r="E36" s="15">
-        <v>0</v>
-      </c>
-      <c r="F36" s="15">
-        <v>0</v>
-      </c>
-      <c r="G36" s="15">
-        <v>0</v>
-      </c>
-      <c r="H36" s="15">
-        <v>0</v>
-      </c>
-      <c r="I36" s="15">
-        <v>0</v>
-      </c>
-      <c r="J36" s="15">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
+      <c r="C36" s="35">
+        <v>0</v>
+      </c>
+      <c r="D36" s="35">
+        <v>0</v>
+      </c>
+      <c r="E36" s="35">
+        <v>0</v>
+      </c>
+      <c r="F36" s="35">
+        <v>0</v>
+      </c>
+      <c r="G36" s="35">
+        <v>0</v>
+      </c>
+      <c r="H36" s="35">
+        <v>0</v>
+      </c>
+      <c r="I36" s="35">
+        <v>0</v>
+      </c>
+      <c r="J36" s="35">
+        <v>0</v>
+      </c>
+      <c r="K36" s="36">
         <v>2</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L36" s="35">
         <v>0.158</v>
       </c>
-      <c r="M36" s="15">
+      <c r="M36" s="35">
         <v>-0.222</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N36" s="35">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O36" s="35">
         <v>2.92E-2</v>
       </c>
-      <c r="P36" s="15">
+      <c r="P36" s="35">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q36" s="15">
+      <c r="Q36" s="35">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R36" s="23">
+      <c r="R36" s="44">
         <v>20</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="S36" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="T36" s="20">
+      <c r="T36" s="38">
         <v>3</v>
       </c>
-      <c r="U36" s="27">
+      <c r="U36" s="42">
         <v>9.7498963771738691E-7</v>
       </c>
-      <c r="V36" s="28">
+      <c r="V36" s="43">
         <v>2.9020000000000001</v>
       </c>
-      <c r="W36" s="1">
+      <c r="W36" s="36">
         <v>0.65</v>
       </c>
-      <c r="X36" s="1">
+      <c r="X36" s="36">
         <v>1E-3</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="Y36" s="36">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="Z36" s="25">
+      <c r="Z36" s="40">
         <v>3.5</v>
       </c>
-      <c r="AA36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="1">
+      <c r="AA36" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="36">
         <v>9</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="41">
         <v>0.09</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="41">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="41">
         <v>2.1</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="41">
         <v>0.65</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="41">
         <v>2.7E-2</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="41">
         <v>-0.2</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="41">
         <v>2.1</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="41">
         <v>0.15</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="36">
         <v>2</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="36">
         <v>0.158</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37" s="36">
         <v>10</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="S37" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="T37" s="20">
+      <c r="T37" s="38">
         <v>3.5</v>
       </c>
-      <c r="U37" s="29">
+      <c r="U37" s="45">
         <v>3.6469003237505803E-5</v>
       </c>
-      <c r="V37" s="30">
+      <c r="V37" s="46">
         <v>3.1030000000000002</v>
       </c>
-      <c r="W37" s="1">
+      <c r="W37" s="36">
         <v>0.85</v>
       </c>
-      <c r="X37" s="1">
+      <c r="X37" s="36">
         <v>0.1</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="Y37" s="36">
         <v>0.1</v>
       </c>
-      <c r="Z37" s="25">
+      <c r="Z37" s="40">
         <v>6</v>
       </c>
-      <c r="AA37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="1">
+      <c r="AA37" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="36">
         <v>10</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="36">
         <v>0.1</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="36">
         <v>-0.25</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="36">
         <v>2.1</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="36">
         <v>0.65</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="36">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="36">
         <v>-0.2</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="36">
         <v>2.1</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="36">
         <v>0.15</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="36">
         <v>2</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="36">
         <v>0.158</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="36">
         <v>11</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="S38" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="T38" s="20">
+      <c r="T38" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="U38" s="27">
+      <c r="U38" s="42">
         <v>1.5275660582380699E-5</v>
       </c>
-      <c r="V38" s="28">
+      <c r="V38" s="43">
         <v>3.0979999999999999</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38" s="36">
         <v>0.85</v>
       </c>
-      <c r="X38" s="1">
+      <c r="X38" s="36">
         <v>0.1</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="36">
         <v>0.1</v>
       </c>
-      <c r="Z38" s="25">
+      <c r="Z38" s="40">
         <v>9</v>
       </c>
-      <c r="AA38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="1">
+      <c r="AA38" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="36">
         <v>11</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="47">
         <v>0.107</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="37">
         <v>-0.25</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="37">
         <v>2.1</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="37">
         <v>0.65</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="37">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="37">
         <v>-0.2</v>
       </c>
-      <c r="I39" s="32">
+      <c r="I39" s="37">
         <v>2.1</v>
       </c>
-      <c r="J39" s="32">
+      <c r="J39" s="37">
         <v>0.15</v>
       </c>
-      <c r="K39" s="32">
+      <c r="K39" s="37">
         <v>2</v>
       </c>
-      <c r="L39" s="32">
+      <c r="L39" s="37">
         <v>0.158</v>
       </c>
-      <c r="M39" s="32">
+      <c r="M39" s="37">
         <v>-0.222</v>
       </c>
-      <c r="N39" s="32">
+      <c r="N39" s="37">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O39" s="32">
+      <c r="O39" s="37">
         <v>2.92E-2</v>
       </c>
-      <c r="P39" s="32">
+      <c r="P39" s="37">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q39" s="32">
+      <c r="Q39" s="37">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R39" s="32">
+      <c r="R39" s="37">
         <v>11</v>
       </c>
-      <c r="S39" s="32" t="s">
+      <c r="S39" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="T39" s="33">
+      <c r="T39" s="48">
         <v>6</v>
       </c>
-      <c r="U39" s="34">
+      <c r="U39" s="49">
         <v>1.6300000000000001E-6</v>
       </c>
-      <c r="V39" s="35">
+      <c r="V39" s="50">
         <v>3.3</v>
       </c>
-      <c r="W39" s="32">
+      <c r="W39" s="37">
         <v>0.85</v>
       </c>
-      <c r="X39" s="32">
+      <c r="X39" s="37">
         <v>50</v>
       </c>
-      <c r="Y39" s="32">
+      <c r="Y39" s="37">
         <v>0.1</v>
       </c>
-      <c r="Z39" s="36">
+      <c r="Z39" s="51">
         <v>25</v>
       </c>
-      <c r="AA39" s="37">
+      <c r="AA39" s="52">
         <v>333</v>
       </c>
-      <c r="AB39" s="32">
+      <c r="AB39" s="37">
         <v>0.03</v>
       </c>
-      <c r="AC39" s="32">
+      <c r="AC39" s="37">
         <v>2</v>
       </c>
-      <c r="AD39" s="32">
+      <c r="AD39" s="37">
         <v>0.05</v>
       </c>
-      <c r="AE39" s="1">
+      <c r="AE39" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="36">
         <v>12</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="36">
         <v>0.158</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="36">
         <v>-0.22</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="36">
         <v>2.1</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="36">
         <v>0.65</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="36">
         <v>-0.2</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="36">
         <v>2.1</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J40" s="41">
         <v>0.15</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="36">
         <v>2</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="36">
         <v>0.158</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40" s="36">
         <v>20</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="S40" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="T40" s="20">
+      <c r="T40" s="38">
         <v>4</v>
       </c>
-      <c r="U40" s="27">
+      <c r="U40" s="42">
         <v>1.49945660278387E-6</v>
       </c>
-      <c r="V40" s="28">
+      <c r="V40" s="43">
         <v>2.9954999999999998</v>
       </c>
-      <c r="W40" s="1">
+      <c r="W40" s="36">
         <v>0.85</v>
       </c>
-      <c r="X40" s="1">
+      <c r="X40" s="36">
         <v>0.01</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Y40" s="36">
         <v>0.1</v>
       </c>
-      <c r="Z40" s="25">
+      <c r="Z40" s="40">
         <v>8</v>
       </c>
-      <c r="AA40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="1">
+      <c r="AA40" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="36">
         <v>0.03</v>
       </c>
-      <c r="AC40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="1">
+      <c r="AC40" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="36">
         <v>13</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="36">
         <v>0.6</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="36">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="36">
         <v>2.1</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="36">
         <v>0.65</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="36">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="41">
         <v>-0.16</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="36">
         <v>2.1</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J41" s="41">
         <v>0.1</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="36">
         <v>2</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="36">
         <v>0.158</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="36">
         <v>14</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="S41" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="T41" s="20">
+      <c r="T41" s="38">
         <v>4.1660000000000004</v>
       </c>
-      <c r="U41" s="27">
+      <c r="U41" s="42">
         <v>1.2949196773396801E-5</v>
       </c>
-      <c r="V41" s="28">
+      <c r="V41" s="43">
         <v>2.7199</v>
       </c>
-      <c r="W41" s="1">
+      <c r="W41" s="36">
         <v>0.85</v>
       </c>
-      <c r="X41" s="1">
+      <c r="X41" s="36">
         <v>0.01</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="Y41" s="36">
         <v>0.1</v>
       </c>
-      <c r="Z41" s="25">
+      <c r="Z41" s="40">
         <v>1</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="AA41" s="36">
         <v>15</v>
       </c>
-      <c r="AB41" s="1">
+      <c r="AB41" s="36">
         <v>0.03</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="AC41" s="36">
         <v>15</v>
       </c>
-      <c r="AD41" s="1">
+      <c r="AD41" s="36">
         <v>0.1</v>
       </c>
-      <c r="AE41" s="1">
+      <c r="AE41" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="36">
         <v>14</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="36">
         <v>0.19500000000000001</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="36">
         <v>-0.25</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="36">
         <v>2.1</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="36">
         <v>0.65</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="36">
         <v>0.03</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="36">
         <v>-0.2</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="36">
         <v>2.1</v>
       </c>
-      <c r="J42" s="26">
+      <c r="J42" s="41">
         <v>0.3</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="36">
         <v>2</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="36">
         <v>0.158</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42" s="36">
         <v>20</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="S42" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="T42" s="20">
+      <c r="T42" s="38">
         <v>4</v>
       </c>
-      <c r="U42" s="27">
+      <c r="U42" s="42">
         <v>9.2400000000000002E-4</v>
       </c>
-      <c r="V42" s="28">
+      <c r="V42" s="43">
         <v>2.9619</v>
       </c>
-      <c r="W42" s="1">
+      <c r="W42" s="36">
         <v>0.85</v>
       </c>
-      <c r="X42" s="1">
+      <c r="X42" s="36">
         <v>0.1</v>
       </c>
-      <c r="Y42" s="1">
+      <c r="Y42" s="36">
         <v>0.1</v>
       </c>
-      <c r="Z42" s="25">
+      <c r="Z42" s="40">
         <v>60</v>
       </c>
-      <c r="AA42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="1">
+      <c r="AA42" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="36">
         <v>0.03</v>
       </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="1">
+      <c r="AC42" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="36">
         <v>15</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="47">
         <v>0.13</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="53">
         <v>-0.26</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="37">
         <v>2.1</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="37">
         <v>0.65</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="37">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="37">
         <v>-0.2</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="37">
         <v>2.1</v>
       </c>
-      <c r="J43" s="38">
+      <c r="J43" s="53">
         <v>0.17499999999999999</v>
       </c>
-      <c r="K43" s="32">
+      <c r="K43" s="37">
         <v>2</v>
       </c>
-      <c r="L43" s="32">
+      <c r="L43" s="37">
         <v>0.158</v>
       </c>
-      <c r="M43" s="32">
+      <c r="M43" s="37">
         <v>-0.222</v>
       </c>
-      <c r="N43" s="32">
+      <c r="N43" s="37">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O43" s="32">
+      <c r="O43" s="37">
         <v>2.92E-2</v>
       </c>
-      <c r="P43" s="32">
+      <c r="P43" s="37">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q43" s="32">
+      <c r="Q43" s="37">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R43" s="32">
+      <c r="R43" s="37">
         <v>11</v>
       </c>
-      <c r="S43" s="32" t="s">
+      <c r="S43" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="T43" s="33">
+      <c r="T43" s="48">
         <v>10.6</v>
       </c>
-      <c r="U43" s="34">
+      <c r="U43" s="49">
         <v>9.8400000000000007E-6</v>
       </c>
-      <c r="V43" s="35">
+      <c r="V43" s="50">
         <v>2.9790000000000001</v>
       </c>
-      <c r="W43" s="32">
+      <c r="W43" s="37">
         <v>0.85</v>
       </c>
-      <c r="X43" s="32">
+      <c r="X43" s="37">
         <v>50</v>
       </c>
-      <c r="Y43" s="32">
+      <c r="Y43" s="37">
         <v>0.1</v>
       </c>
-      <c r="Z43" s="36">
+      <c r="Z43" s="51">
         <v>12</v>
       </c>
-      <c r="AA43" s="39">
+      <c r="AA43" s="54">
         <v>100</v>
       </c>
-      <c r="AB43" s="32">
+      <c r="AB43" s="37">
         <v>0.03</v>
       </c>
-      <c r="AC43" s="38">
+      <c r="AC43" s="53">
         <v>15</v>
       </c>
-      <c r="AD43" s="38">
+      <c r="AD43" s="53">
         <v>0.1</v>
       </c>
-      <c r="AE43" s="1">
+      <c r="AE43" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="36">
         <v>16</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="40">
+      <c r="C44" s="55">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="55">
         <v>-0.20200000000000001</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="36">
         <v>2.1</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="36">
         <v>0.65</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="41">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="41">
         <v>-0.218</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="36">
         <v>2.1</v>
       </c>
-      <c r="J44" s="26">
+      <c r="J44" s="41">
         <v>0.19</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="36">
         <v>2</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="36">
         <v>0.158</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R44" s="36">
         <v>12</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="S44" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="T44" s="20">
+      <c r="T44" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="U44" s="27">
+      <c r="U44" s="42">
         <v>6.3515320483812896E-6</v>
       </c>
-      <c r="V44" s="28">
+      <c r="V44" s="43">
         <v>3.0558999999999998</v>
       </c>
-      <c r="W44" s="1">
+      <c r="W44" s="36">
         <v>0.85</v>
       </c>
-      <c r="X44" s="1">
+      <c r="X44" s="36">
         <v>50</v>
       </c>
-      <c r="Y44" s="1">
+      <c r="Y44" s="36">
         <v>0.1</v>
       </c>
-      <c r="Z44" s="25">
+      <c r="Z44" s="40">
         <v>12</v>
       </c>
-      <c r="AA44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="1">
+      <c r="AA44" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="36">
         <v>0.03</v>
       </c>
-      <c r="AC44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="1">
+      <c r="AC44" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="36">
         <v>17</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="36">
         <v>0.188</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="36">
         <v>-0.25</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="36">
         <v>2.1</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="36">
         <v>0.65</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="36">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="36">
         <v>-0.2</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="36">
         <v>2.1</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="36">
         <v>0.15</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="36">
         <v>2</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="36">
         <v>0.158</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45" s="36">
         <v>13</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="S45" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="T45" s="20">
+      <c r="T45" s="38">
         <v>4.5</v>
       </c>
-      <c r="U45" s="27">
+      <c r="U45" s="42">
         <v>6.0492905560642804E-6</v>
       </c>
-      <c r="V45" s="28">
+      <c r="V45" s="43">
         <v>3.0888</v>
       </c>
-      <c r="W45" s="1">
+      <c r="W45" s="36">
         <v>0.85</v>
       </c>
-      <c r="X45" s="1">
+      <c r="X45" s="36">
         <v>50</v>
       </c>
-      <c r="Y45" s="1">
+      <c r="Y45" s="36">
         <v>0.1</v>
       </c>
-      <c r="Z45" s="25">
+      <c r="Z45" s="40">
         <v>14</v>
       </c>
-      <c r="AA45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="1">
+      <c r="AA45" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="36">
         <v>0.03</v>
       </c>
-      <c r="AC45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="1">
+      <c r="AC45" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="36">
         <v>18</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="36">
         <v>0.188</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="36">
         <v>-0.27</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="36">
         <v>2.1</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="36">
         <v>0.65</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="36">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="36">
         <v>-0.2</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="36">
         <v>2.1</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="36">
         <v>0.15</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="36">
         <v>2</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46" s="36">
         <v>0.158</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R46" s="36">
         <v>13</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="S46" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="T46" s="20">
+      <c r="T46" s="38">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U46" s="27">
+      <c r="U46" s="42">
         <v>4.6677348040036997E-6</v>
       </c>
-      <c r="V46" s="28">
+      <c r="V46" s="43">
         <v>3.0606</v>
       </c>
-      <c r="W46" s="1">
+      <c r="W46" s="36">
         <v>0.85</v>
       </c>
-      <c r="X46" s="1">
+      <c r="X46" s="36">
         <v>50</v>
       </c>
-      <c r="Y46" s="1">
+      <c r="Y46" s="36">
         <v>0.1</v>
       </c>
-      <c r="Z46" s="25">
+      <c r="Z46" s="40">
         <v>12</v>
       </c>
-      <c r="AA46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="1">
+      <c r="AA46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="36">
         <v>0.03</v>
       </c>
-      <c r="AC46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="1">
+      <c r="AC46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="36">
         <v>19</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="41">
         <v>0.15</v>
       </c>
-      <c r="D47" s="26">
+      <c r="D47" s="41">
         <v>-0.23</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="36">
         <v>2.1</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="36">
         <v>0.65</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="36">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="36">
         <v>-0.2</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="36">
         <v>2.1</v>
       </c>
-      <c r="J47" s="26">
+      <c r="J47" s="41">
         <v>0.13</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="36">
         <v>2</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="36">
         <v>0.158</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R47" s="36">
         <v>11</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="S47" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="T47" s="20">
+      <c r="T47" s="38">
         <v>5.6</v>
       </c>
-      <c r="U47" s="27">
+      <c r="U47" s="42">
         <v>2.7318430366659302E-6</v>
       </c>
-      <c r="V47" s="28">
+      <c r="V47" s="43">
         <v>3.0596000000000001</v>
       </c>
-      <c r="W47" s="1">
+      <c r="W47" s="36">
         <v>0.85</v>
       </c>
-      <c r="X47" s="1">
+      <c r="X47" s="36">
         <v>50</v>
       </c>
-      <c r="Y47" s="1">
+      <c r="Y47" s="36">
         <v>0.1</v>
       </c>
-      <c r="Z47" s="25">
+      <c r="Z47" s="40">
         <v>40</v>
       </c>
-      <c r="AA47" s="1">
+      <c r="AA47" s="36">
         <v>100</v>
       </c>
-      <c r="AB47" s="1">
+      <c r="AB47" s="36">
         <v>0.03</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AC47" s="36">
         <v>15</v>
       </c>
-      <c r="AD47" s="1">
+      <c r="AD47" s="36">
         <v>0.1</v>
       </c>
-      <c r="AE47" s="1">
+      <c r="AE47" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="36">
         <v>20</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="36">
         <v>0.17</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="36">
         <v>-0.25</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="36">
         <v>2.1</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="36">
         <v>0.65</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="36">
         <v>3.9E-2</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="36">
         <v>-0.2</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="36">
         <v>2.1</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="36">
         <v>0.15</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="36">
         <v>2</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48" s="36">
         <v>0.158</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R48" s="1">
+      <c r="R48" s="36">
         <v>12</v>
       </c>
-      <c r="S48" s="1" t="s">
+      <c r="S48" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="T48" s="20">
+      <c r="T48" s="38">
         <v>5</v>
       </c>
-      <c r="U48" s="27">
+      <c r="U48" s="42">
         <v>5.5576925535071302E-6</v>
       </c>
-      <c r="V48" s="28">
+      <c r="V48" s="43">
         <v>3.1151</v>
       </c>
-      <c r="W48" s="1">
+      <c r="W48" s="36">
         <v>0.85</v>
       </c>
-      <c r="X48" s="1">
+      <c r="X48" s="36">
         <v>50</v>
       </c>
-      <c r="Y48" s="1">
+      <c r="Y48" s="36">
         <v>0.1</v>
       </c>
-      <c r="Z48" s="25">
+      <c r="Z48" s="40">
         <v>25</v>
       </c>
-      <c r="AA48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="1">
+      <c r="AA48" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="36">
         <v>0.03</v>
       </c>
-      <c r="AC48" s="1">
+      <c r="AC48" s="36">
         <v>15</v>
       </c>
-      <c r="AD48" s="1">
+      <c r="AD48" s="36">
         <v>0.1</v>
       </c>
-      <c r="AE48" s="1">
+      <c r="AE48" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="36">
         <v>21</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="41">
         <v>0.51970000000000005</v>
       </c>
-      <c r="D49" s="26">
+      <c r="D49" s="41">
         <v>-0.28799999999999998</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="36">
         <v>2.1</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="36">
         <v>0.65</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="36">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="36">
         <v>-0.2</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="36">
         <v>2.1</v>
       </c>
-      <c r="J49" s="26">
+      <c r="J49" s="41">
         <v>0.17199999999999999</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="36">
         <v>2</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49" s="36">
         <v>0.158</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R49" s="36">
         <v>20</v>
       </c>
-      <c r="S49" s="1" t="s">
+      <c r="S49" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="T49" s="20">
+      <c r="T49" s="38">
         <v>6.2789999999999999</v>
       </c>
-      <c r="U49" s="27">
+      <c r="U49" s="42">
         <v>9.5804914942498602E-6</v>
       </c>
-      <c r="V49" s="28">
+      <c r="V49" s="43">
         <v>3.0548000000000002</v>
       </c>
-      <c r="W49" s="1">
+      <c r="W49" s="36">
         <v>0.85</v>
       </c>
-      <c r="X49" s="26">
+      <c r="X49" s="41">
         <v>3</v>
       </c>
-      <c r="Y49" s="1">
+      <c r="Y49" s="36">
         <v>0.1</v>
       </c>
-      <c r="Z49" s="25">
+      <c r="Z49" s="40">
         <v>9</v>
       </c>
-      <c r="AA49" s="26">
+      <c r="AA49" s="41">
         <v>12</v>
       </c>
-      <c r="AB49" s="1">
+      <c r="AB49" s="36">
         <v>0.03</v>
       </c>
-      <c r="AC49" s="1">
+      <c r="AC49" s="36">
         <v>15</v>
       </c>
-      <c r="AD49" s="1">
+      <c r="AD49" s="36">
         <v>0.1</v>
       </c>
-      <c r="AE49" s="1">
+      <c r="AE49" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="36">
         <v>22</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="36">
         <v>0.185</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="36">
         <v>-0.25</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="36">
         <v>2.1</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="36">
         <v>0.65</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="36">
         <v>2.75E-2</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="36">
         <v>-0.2</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="36">
         <v>2.1</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="36">
         <v>0.15</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="36">
         <v>2</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50" s="36">
         <v>0.158</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P50" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R50" s="36">
         <v>13</v>
       </c>
-      <c r="S50" s="1" t="s">
+      <c r="S50" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="T50" s="20">
+      <c r="T50" s="38">
         <v>6.3</v>
       </c>
-      <c r="U50" s="27">
+      <c r="U50" s="42">
         <v>2.77490694836592E-6</v>
       </c>
-      <c r="V50" s="28">
+      <c r="V50" s="43">
         <v>3.1715</v>
       </c>
-      <c r="W50" s="1">
+      <c r="W50" s="36">
         <v>0.85</v>
       </c>
-      <c r="X50" s="1">
+      <c r="X50" s="36">
         <v>100</v>
       </c>
-      <c r="Y50" s="1">
+      <c r="Y50" s="36">
         <v>0.1</v>
       </c>
-      <c r="Z50" s="25">
+      <c r="Z50" s="40">
         <v>23</v>
       </c>
-      <c r="AA50" s="1">
+      <c r="AA50" s="36">
         <v>100</v>
       </c>
-      <c r="AB50" s="1">
+      <c r="AB50" s="36">
         <v>0.03</v>
       </c>
-      <c r="AC50" s="1">
+      <c r="AC50" s="36">
         <v>2</v>
       </c>
-      <c r="AD50" s="1">
+      <c r="AD50" s="36">
         <v>0.05</v>
       </c>
-      <c r="AE50" s="1">
+      <c r="AE50" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="36">
         <v>23</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="36">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="36">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="36">
         <v>2.1</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="36">
         <v>0.65</v>
       </c>
-      <c r="G51" s="26">
+      <c r="G51" s="41">
         <v>0.01</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="36">
         <v>-0.2</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="36">
         <v>2.1</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="36">
         <v>0.15</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="36">
         <v>2</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51" s="36">
         <v>0.158</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P51" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R51" s="1">
+      <c r="R51" s="36">
         <v>20</v>
       </c>
-      <c r="S51" s="1" t="s">
+      <c r="S51" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="T51" s="20">
+      <c r="T51" s="38">
         <v>6.6</v>
       </c>
-      <c r="U51" s="27">
+      <c r="U51" s="42">
         <v>8.3256545073091907E-6</v>
       </c>
-      <c r="V51" s="28">
+      <c r="V51" s="43">
         <v>3.1311</v>
       </c>
-      <c r="W51" s="1">
+      <c r="W51" s="36">
         <v>0.85</v>
       </c>
-      <c r="X51" s="1">
+      <c r="X51" s="36">
         <v>50</v>
       </c>
-      <c r="Y51" s="1">
+      <c r="Y51" s="36">
         <v>0.1</v>
       </c>
-      <c r="Z51" s="25">
+      <c r="Z51" s="40">
         <v>6</v>
       </c>
-      <c r="AA51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="1">
+      <c r="AA51" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="36">
         <v>0.03</v>
       </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="1">
+      <c r="AC51" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="36">
         <v>24</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="41">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D52" s="26">
+      <c r="D52" s="41">
         <v>-0.19500000000000001</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="36">
         <v>2.1</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="36">
         <v>0.65</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="36">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="36">
         <v>-0.2</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="36">
         <v>2.1</v>
       </c>
-      <c r="J52" s="26">
+      <c r="J52" s="41">
         <v>0.17</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="36">
         <v>2</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52" s="36">
         <v>0.158</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="36">
         <v>-0.222</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N52" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52" s="36">
         <v>2.92E-2</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P52" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52" s="36">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R52" s="1">
+      <c r="R52" s="36">
         <v>13.7</v>
       </c>
-      <c r="S52" s="1" t="s">
+      <c r="S52" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="T52" s="20">
+      <c r="T52" s="38">
         <v>4.2</v>
       </c>
-      <c r="U52" s="27">
+      <c r="U52" s="42">
         <v>4.6317016113435702E-6</v>
       </c>
-      <c r="V52" s="28">
+      <c r="V52" s="43">
         <v>3.1261999999999999</v>
       </c>
-      <c r="W52" s="1">
+      <c r="W52" s="36">
         <v>0.85</v>
       </c>
-      <c r="X52" s="1">
+      <c r="X52" s="36">
         <v>50</v>
       </c>
-      <c r="Y52" s="1">
+      <c r="Y52" s="36">
         <v>0.1</v>
       </c>
-      <c r="Z52" s="25">
+      <c r="Z52" s="40">
         <v>20</v>
       </c>
-      <c r="AA52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="1">
+      <c r="AA52" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="36">
         <v>0.03</v>
       </c>
-      <c r="AC52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="1">
+      <c r="AC52" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="36">
         <v>25</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="37">
         <v>0.3</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="37">
         <v>-0.25</v>
       </c>
-      <c r="E53" s="32">
+      <c r="E53" s="37">
         <v>2.1</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="37">
         <v>0.65</v>
       </c>
-      <c r="G53" s="32">
+      <c r="G53" s="37">
         <v>0.02</v>
       </c>
-      <c r="H53" s="32">
+      <c r="H53" s="37">
         <v>-0.2</v>
       </c>
-      <c r="I53" s="32">
+      <c r="I53" s="37">
         <v>2.1</v>
       </c>
-      <c r="J53" s="32">
+      <c r="J53" s="37">
         <v>0.3</v>
       </c>
-      <c r="K53" s="32">
+      <c r="K53" s="37">
         <v>2</v>
       </c>
-      <c r="L53" s="32">
+      <c r="L53" s="37">
         <v>0.158</v>
       </c>
-      <c r="M53" s="32">
+      <c r="M53" s="37">
         <v>-0.222</v>
       </c>
-      <c r="N53" s="32">
+      <c r="N53" s="37">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O53" s="32">
+      <c r="O53" s="37">
         <v>2.92E-2</v>
       </c>
-      <c r="P53" s="32">
+      <c r="P53" s="37">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q53" s="32">
+      <c r="Q53" s="37">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R53" s="32">
+      <c r="R53" s="37">
         <v>13</v>
       </c>
-      <c r="S53" s="32" t="s">
+      <c r="S53" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="T53" s="33">
+      <c r="T53" s="48">
         <v>5.8</v>
       </c>
-      <c r="U53" s="34">
+      <c r="U53" s="49">
         <v>7.9999999999999996E-7</v>
       </c>
-      <c r="V53" s="35">
+      <c r="V53" s="50">
         <v>3.15</v>
       </c>
-      <c r="W53" s="32">
+      <c r="W53" s="37">
         <v>0.85</v>
       </c>
-      <c r="X53" s="32">
+      <c r="X53" s="37">
         <v>100</v>
       </c>
-      <c r="Y53" s="32">
+      <c r="Y53" s="37">
         <v>0.1</v>
       </c>
-      <c r="Z53" s="36">
+      <c r="Z53" s="51">
         <v>35</v>
       </c>
-      <c r="AA53" s="31">
+      <c r="AA53" s="47">
         <v>3500</v>
       </c>
-      <c r="AB53" s="32">
+      <c r="AB53" s="37">
         <v>0.03</v>
       </c>
-      <c r="AC53" s="32">
+      <c r="AC53" s="37">
         <v>9</v>
       </c>
-      <c r="AD53" s="32">
+      <c r="AD53" s="37">
         <v>0.1</v>
       </c>
-      <c r="AE53" s="1">
+      <c r="AE53" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="36">
         <v>26</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="47">
         <v>0.3</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="37">
         <v>-0.25</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E54" s="37">
         <v>2.1</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="37">
         <v>0.65</v>
       </c>
-      <c r="G54" s="38">
+      <c r="G54" s="53">
         <v>0.02</v>
       </c>
-      <c r="H54" s="32">
+      <c r="H54" s="37">
         <v>-0.2</v>
       </c>
-      <c r="I54" s="32">
+      <c r="I54" s="37">
         <v>2.1</v>
       </c>
-      <c r="J54" s="38">
+      <c r="J54" s="53">
         <v>0.3</v>
       </c>
-      <c r="K54" s="32">
+      <c r="K54" s="37">
         <v>2</v>
       </c>
-      <c r="L54" s="32">
+      <c r="L54" s="37">
         <v>0.158</v>
       </c>
-      <c r="M54" s="32">
+      <c r="M54" s="37">
         <v>-0.222</v>
       </c>
-      <c r="N54" s="32">
+      <c r="N54" s="37">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O54" s="32">
+      <c r="O54" s="37">
         <v>2.92E-2</v>
       </c>
-      <c r="P54" s="32">
+      <c r="P54" s="37">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q54" s="32">
+      <c r="Q54" s="37">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="R54" s="32">
+      <c r="R54" s="37">
         <v>13</v>
       </c>
-      <c r="S54" s="32" t="s">
+      <c r="S54" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="T54" s="33">
+      <c r="T54" s="48">
         <v>7.2</v>
       </c>
-      <c r="U54" s="34">
+      <c r="U54" s="49">
         <v>4.5299999999999998E-6</v>
       </c>
-      <c r="V54" s="35">
+      <c r="V54" s="50">
         <v>3.1219999999999999</v>
       </c>
-      <c r="W54" s="32">
+      <c r="W54" s="37">
         <v>0.85</v>
       </c>
-      <c r="X54" s="32">
+      <c r="X54" s="37">
         <v>100</v>
       </c>
-      <c r="Y54" s="32">
+      <c r="Y54" s="37">
         <v>0.1</v>
       </c>
-      <c r="Z54" s="38">
+      <c r="Z54" s="53">
         <v>15</v>
       </c>
-      <c r="AA54" s="32">
+      <c r="AA54" s="37">
         <v>100</v>
       </c>
-      <c r="AB54" s="32">
+      <c r="AB54" s="37">
         <v>0.03</v>
       </c>
-      <c r="AC54" s="32">
+      <c r="AC54" s="37">
         <v>9</v>
       </c>
-      <c r="AD54" s="32">
+      <c r="AD54" s="37">
         <v>0.1</v>
       </c>
-      <c r="AE54" s="1">
+      <c r="AE54" s="36">
         <v>0.2</v>
       </c>
     </row>
@@ -14959,82 +14765,82 @@
       <c r="A2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="U2" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="V2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -15930,10 +15736,10 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="31">
-        <v>0</v>
-      </c>
-      <c r="I13" s="32">
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="I13" s="24">
         <v>0</v>
       </c>
       <c r="J13" s="1">
@@ -15951,7 +15757,7 @@
       <c r="N13" s="15">
         <v>0</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="26">
         <v>0</v>
       </c>
       <c r="P13" s="15">
@@ -16041,7 +15847,7 @@
       <c r="N14" s="15">
         <v>0</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="26">
         <v>0</v>
       </c>
       <c r="P14" s="15">
@@ -16290,7 +16096,7 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="23">
         <v>0</v>
       </c>
       <c r="J17" s="1">
@@ -16308,7 +16114,7 @@
       <c r="N17" s="1">
         <v>0</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="24">
         <v>0</v>
       </c>
       <c r="P17" s="15">
@@ -16389,10 +16195,10 @@
       <c r="K18" s="1">
         <v>0</v>
       </c>
-      <c r="L18" s="31">
-        <v>0</v>
-      </c>
-      <c r="M18" s="31">
+      <c r="L18" s="23">
+        <v>0</v>
+      </c>
+      <c r="M18" s="23">
         <v>0</v>
       </c>
       <c r="N18" s="1">
@@ -16401,7 +16207,7 @@
       <c r="O18" s="1">
         <v>0</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="24">
         <v>0</v>
       </c>
       <c r="Q18" s="15">
@@ -16476,19 +16282,19 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="32">
-        <v>0</v>
-      </c>
-      <c r="L19" s="32">
-        <v>0</v>
-      </c>
-      <c r="M19" s="32">
+      <c r="K19" s="24">
+        <v>0</v>
+      </c>
+      <c r="L19" s="24">
+        <v>0</v>
+      </c>
+      <c r="M19" s="24">
         <v>0</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="23">
         <v>0</v>
       </c>
       <c r="P19" s="1">
@@ -16587,7 +16393,7 @@
       <c r="Q20" s="1">
         <v>0</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="24">
         <v>0</v>
       </c>
       <c r="S20" s="15">
@@ -16596,10 +16402,10 @@
       <c r="T20" s="15">
         <v>0</v>
       </c>
-      <c r="U20" s="42">
-        <v>0</v>
-      </c>
-      <c r="V20" s="42">
+      <c r="U20" s="26">
+        <v>0</v>
+      </c>
+      <c r="V20" s="26">
         <v>0</v>
       </c>
       <c r="W20" s="15">
@@ -16686,7 +16492,7 @@
       <c r="T21" s="15">
         <v>0</v>
       </c>
-      <c r="U21" s="41">
+      <c r="U21" s="25">
         <v>0</v>
       </c>
       <c r="V21" s="15">
@@ -17028,10 +16834,10 @@
       <c r="P25" s="1">
         <v>0</v>
       </c>
-      <c r="Q25" s="32">
-        <v>0</v>
-      </c>
-      <c r="R25" s="31">
+      <c r="Q25" s="24">
+        <v>0</v>
+      </c>
+      <c r="R25" s="23">
         <v>0</v>
       </c>
       <c r="S25" s="1">
@@ -17040,10 +16846,10 @@
       <c r="T25" s="1">
         <v>0</v>
       </c>
-      <c r="U25" s="32">
-        <v>0</v>
-      </c>
-      <c r="V25" s="32">
+      <c r="U25" s="24">
+        <v>0</v>
+      </c>
+      <c r="V25" s="24">
         <v>0</v>
       </c>
       <c r="W25" s="1">
@@ -17118,22 +16924,22 @@
       <c r="P26" s="1">
         <v>0</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q26" s="24">
         <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="32">
+      <c r="S26" s="24">
         <v>0</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
       </c>
-      <c r="U26" s="32">
-        <v>0</v>
-      </c>
-      <c r="V26" s="31">
+      <c r="U26" s="24">
+        <v>0</v>
+      </c>
+      <c r="V26" s="23">
         <v>0</v>
       </c>
       <c r="W26" s="1">
@@ -17310,10 +17116,10 @@
       <c r="T28" s="1">
         <v>0</v>
       </c>
-      <c r="U28" s="32">
-        <v>0</v>
-      </c>
-      <c r="V28" s="32">
+      <c r="U28" s="24">
+        <v>0</v>
+      </c>
+      <c r="V28" s="24">
         <v>0</v>
       </c>
       <c r="W28" s="1">
@@ -17398,82 +17204,82 @@
       <c r="A2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="U2" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="V2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -18369,10 +18175,10 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="31">
-        <v>0</v>
-      </c>
-      <c r="I13" s="32">
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="I13" s="24">
         <v>0</v>
       </c>
       <c r="J13" s="1">
@@ -18390,7 +18196,7 @@
       <c r="N13" s="15">
         <v>0</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="26">
         <v>0</v>
       </c>
       <c r="P13" s="15">
@@ -18459,10 +18265,10 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="23">
         <v>1</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="24">
         <v>1</v>
       </c>
       <c r="J14" s="1">
@@ -18480,7 +18286,7 @@
       <c r="N14" s="15">
         <v>0</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="26">
         <v>0</v>
       </c>
       <c r="P14" s="15">
@@ -18729,7 +18535,7 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="23">
         <v>0</v>
       </c>
       <c r="J17" s="1">
@@ -18747,7 +18553,7 @@
       <c r="N17" s="1">
         <v>0</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="24">
         <v>0</v>
       </c>
       <c r="P17" s="15">
@@ -18828,10 +18634,10 @@
       <c r="K18" s="1">
         <v>0</v>
       </c>
-      <c r="L18" s="31">
-        <v>0</v>
-      </c>
-      <c r="M18" s="31">
+      <c r="L18" s="23">
+        <v>0</v>
+      </c>
+      <c r="M18" s="23">
         <v>0</v>
       </c>
       <c r="N18" s="1">
@@ -18840,7 +18646,7 @@
       <c r="O18" s="1">
         <v>0</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="24">
         <v>0</v>
       </c>
       <c r="Q18" s="15">
@@ -18915,19 +18721,19 @@
       <c r="J19" s="1">
         <v>1</v>
       </c>
-      <c r="K19" s="32">
-        <v>0</v>
-      </c>
-      <c r="L19" s="32">
-        <v>0</v>
-      </c>
-      <c r="M19" s="32">
+      <c r="K19" s="24">
+        <v>0</v>
+      </c>
+      <c r="L19" s="24">
+        <v>0</v>
+      </c>
+      <c r="M19" s="24">
         <v>0</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="23">
         <v>0</v>
       </c>
       <c r="P19" s="1">
@@ -19020,13 +18826,13 @@
       <c r="O20" s="1">
         <v>0</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P20" s="23">
         <v>1</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="24">
         <v>0</v>
       </c>
       <c r="S20" s="15">
@@ -19035,10 +18841,10 @@
       <c r="T20" s="15">
         <v>0</v>
       </c>
-      <c r="U20" s="42">
-        <v>0</v>
-      </c>
-      <c r="V20" s="42">
+      <c r="U20" s="26">
+        <v>0</v>
+      </c>
+      <c r="V20" s="26">
         <v>0</v>
       </c>
       <c r="W20" s="15">
@@ -19113,7 +18919,7 @@
       <c r="P21" s="1">
         <v>1</v>
       </c>
-      <c r="Q21" s="32">
+      <c r="Q21" s="24">
         <v>0.5</v>
       </c>
       <c r="R21" s="1">
@@ -19125,7 +18931,7 @@
       <c r="T21" s="15">
         <v>0</v>
       </c>
-      <c r="U21" s="41">
+      <c r="U21" s="25">
         <v>0</v>
       </c>
       <c r="V21" s="15">
@@ -19185,13 +18991,13 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="23">
         <v>0.5</v>
       </c>
-      <c r="L22" s="32">
-        <v>0</v>
-      </c>
-      <c r="M22" s="32">
+      <c r="L22" s="24">
+        <v>0</v>
+      </c>
+      <c r="M22" s="24">
         <v>0</v>
       </c>
       <c r="N22" s="1">
@@ -19200,7 +19006,7 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="24">
         <v>1</v>
       </c>
       <c r="Q22" s="1">
@@ -19272,13 +19078,13 @@
       <c r="J23" s="1">
         <v>0.5</v>
       </c>
-      <c r="K23" s="32">
-        <v>0</v>
-      </c>
-      <c r="L23" s="32">
-        <v>0</v>
-      </c>
-      <c r="M23" s="32">
+      <c r="K23" s="24">
+        <v>0</v>
+      </c>
+      <c r="L23" s="24">
+        <v>0</v>
+      </c>
+      <c r="M23" s="24">
         <v>0</v>
       </c>
       <c r="N23" s="1">
@@ -19287,7 +19093,7 @@
       <c r="O23" s="1">
         <v>0</v>
       </c>
-      <c r="P23" s="32">
+      <c r="P23" s="24">
         <v>0.75</v>
       </c>
       <c r="Q23" s="1">
@@ -19467,10 +19273,10 @@
       <c r="P25" s="1">
         <v>0</v>
       </c>
-      <c r="Q25" s="32">
-        <v>0</v>
-      </c>
-      <c r="R25" s="31">
+      <c r="Q25" s="24">
+        <v>0</v>
+      </c>
+      <c r="R25" s="23">
         <v>0</v>
       </c>
       <c r="S25" s="1">
@@ -19479,10 +19285,10 @@
       <c r="T25" s="1">
         <v>0</v>
       </c>
-      <c r="U25" s="32">
-        <v>0</v>
-      </c>
-      <c r="V25" s="32">
+      <c r="U25" s="24">
+        <v>0</v>
+      </c>
+      <c r="V25" s="24">
         <v>0</v>
       </c>
       <c r="W25" s="1">
@@ -19557,22 +19363,22 @@
       <c r="P26" s="1">
         <v>0</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q26" s="24">
         <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="32">
+      <c r="S26" s="24">
         <v>0</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
       </c>
-      <c r="U26" s="32">
-        <v>0</v>
-      </c>
-      <c r="V26" s="31">
+      <c r="U26" s="24">
+        <v>0</v>
+      </c>
+      <c r="V26" s="23">
         <v>0</v>
       </c>
       <c r="W26" s="1">
@@ -19647,22 +19453,22 @@
       <c r="P27" s="1">
         <v>1</v>
       </c>
-      <c r="Q27" s="32">
+      <c r="Q27" s="24">
         <v>0</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="32">
+      <c r="S27" s="24">
         <v>0</v>
       </c>
       <c r="T27" s="1">
         <v>0.25</v>
       </c>
-      <c r="U27" s="32">
-        <v>0</v>
-      </c>
-      <c r="V27" s="31">
+      <c r="U27" s="24">
+        <v>0</v>
+      </c>
+      <c r="V27" s="23">
         <v>0.25</v>
       </c>
       <c r="W27" s="1">
@@ -19737,22 +19543,22 @@
       <c r="P28" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q28" s="32">
+      <c r="Q28" s="24">
         <v>0</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="32">
+      <c r="S28" s="24">
         <v>0.5</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
       </c>
-      <c r="U28" s="32">
-        <v>0</v>
-      </c>
-      <c r="V28" s="31">
+      <c r="U28" s="24">
+        <v>0</v>
+      </c>
+      <c r="V28" s="23">
         <v>0.25</v>
       </c>
       <c r="W28" s="1">
@@ -19790,7 +19596,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19834,82 +19640,82 @@
       <c r="A2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="U2" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="V2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="25" t="s">
         <v>104</v>
       </c>
       <c r="AB2" t="s">
@@ -20808,10 +20614,10 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="31">
-        <v>0</v>
-      </c>
-      <c r="I13" s="32">
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="I13" s="24">
         <v>0</v>
       </c>
       <c r="J13" s="1">
@@ -20829,7 +20635,7 @@
       <c r="N13" s="15">
         <v>0</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="26">
         <v>0</v>
       </c>
       <c r="P13" s="15">
@@ -20895,10 +20701,10 @@
       <c r="G14" s="1">
         <v>0.25</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="23">
         <v>0.25</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="24">
         <v>0.25</v>
       </c>
       <c r="J14" s="1">
@@ -20916,7 +20722,7 @@
       <c r="N14" s="15">
         <v>0</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="26">
         <v>0</v>
       </c>
       <c r="P14" s="15">
@@ -21159,7 +20965,7 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="23">
         <v>0</v>
       </c>
       <c r="J17" s="1">
@@ -21177,7 +20983,7 @@
       <c r="N17" s="1">
         <v>0</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="24">
         <v>0</v>
       </c>
       <c r="P17" s="15">
@@ -21255,10 +21061,10 @@
       <c r="K18" s="1">
         <v>0</v>
       </c>
-      <c r="L18" s="31">
-        <v>0</v>
-      </c>
-      <c r="M18" s="31">
+      <c r="L18" s="23">
+        <v>0</v>
+      </c>
+      <c r="M18" s="23">
         <v>0</v>
       </c>
       <c r="N18" s="1">
@@ -21267,7 +21073,7 @@
       <c r="O18" s="1">
         <v>0</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="24">
         <v>0</v>
       </c>
       <c r="Q18" s="15">
@@ -21339,19 +21145,19 @@
       <c r="J19" s="1">
         <v>0.25</v>
       </c>
-      <c r="K19" s="32">
-        <v>0</v>
-      </c>
-      <c r="L19" s="32">
-        <v>0</v>
-      </c>
-      <c r="M19" s="32">
+      <c r="K19" s="24">
+        <v>0</v>
+      </c>
+      <c r="L19" s="24">
+        <v>0</v>
+      </c>
+      <c r="M19" s="24">
         <v>0</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="23">
         <v>0</v>
       </c>
       <c r="P19" s="1">
@@ -21441,13 +21247,13 @@
       <c r="O20" s="1">
         <v>0</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P20" s="23">
         <v>0.3</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="24">
         <v>0</v>
       </c>
       <c r="S20" s="15">
@@ -21456,10 +21262,10 @@
       <c r="T20" s="15">
         <v>0</v>
       </c>
-      <c r="U20" s="42">
-        <v>0</v>
-      </c>
-      <c r="V20" s="42">
+      <c r="U20" s="26">
+        <v>0</v>
+      </c>
+      <c r="V20" s="26">
         <v>0</v>
       </c>
       <c r="W20" s="15">
@@ -21531,7 +21337,7 @@
       <c r="P21" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q21" s="32">
+      <c r="Q21" s="24">
         <v>0.05</v>
       </c>
       <c r="R21" s="1">
@@ -21543,7 +21349,7 @@
       <c r="T21" s="15">
         <v>0</v>
       </c>
-      <c r="U21" s="41">
+      <c r="U21" s="25">
         <v>0</v>
       </c>
       <c r="V21" s="15">
@@ -21600,13 +21406,13 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="23">
         <v>0.05</v>
       </c>
-      <c r="L22" s="32">
-        <v>0</v>
-      </c>
-      <c r="M22" s="32">
+      <c r="L22" s="24">
+        <v>0</v>
+      </c>
+      <c r="M22" s="24">
         <v>0</v>
       </c>
       <c r="N22" s="1">
@@ -21615,7 +21421,7 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="24">
         <v>0.2</v>
       </c>
       <c r="Q22" s="1">
@@ -21687,13 +21493,13 @@
       <c r="J23" s="1">
         <v>0.1</v>
       </c>
-      <c r="K23" s="32">
-        <v>0</v>
-      </c>
-      <c r="L23" s="32">
-        <v>0</v>
-      </c>
-      <c r="M23" s="32">
+      <c r="K23" s="24">
+        <v>0</v>
+      </c>
+      <c r="L23" s="24">
+        <v>0</v>
+      </c>
+      <c r="M23" s="24">
         <v>0</v>
       </c>
       <c r="N23" s="1">
@@ -21702,7 +21508,7 @@
       <c r="O23" s="1">
         <v>0</v>
       </c>
-      <c r="P23" s="32">
+      <c r="P23" s="24">
         <v>0.3</v>
       </c>
       <c r="Q23" s="1">
@@ -21879,10 +21685,10 @@
       <c r="P25" s="1">
         <v>0</v>
       </c>
-      <c r="Q25" s="32">
-        <v>0</v>
-      </c>
-      <c r="R25" s="31">
+      <c r="Q25" s="24">
+        <v>0</v>
+      </c>
+      <c r="R25" s="23">
         <v>0</v>
       </c>
       <c r="S25" s="1">
@@ -21891,10 +21697,10 @@
       <c r="T25" s="1">
         <v>0</v>
       </c>
-      <c r="U25" s="32">
-        <v>0</v>
-      </c>
-      <c r="V25" s="32">
+      <c r="U25" s="24">
+        <v>0</v>
+      </c>
+      <c r="V25" s="24">
         <v>0</v>
       </c>
       <c r="W25" s="1">
@@ -21966,22 +21772,22 @@
       <c r="P26" s="1">
         <v>0</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q26" s="24">
         <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="32">
+      <c r="S26" s="24">
         <v>0</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
       </c>
-      <c r="U26" s="32">
-        <v>0</v>
-      </c>
-      <c r="V26" s="31">
+      <c r="U26" s="24">
+        <v>0</v>
+      </c>
+      <c r="V26" s="23">
         <v>0</v>
       </c>
       <c r="W26" s="1">
@@ -22053,22 +21859,22 @@
       <c r="P27" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q27" s="32">
+      <c r="Q27" s="24">
         <v>0</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="32">
+      <c r="S27" s="24">
         <v>0</v>
       </c>
       <c r="T27" s="1">
         <v>0.05</v>
       </c>
-      <c r="U27" s="32">
-        <v>0</v>
-      </c>
-      <c r="V27" s="31">
+      <c r="U27" s="24">
+        <v>0</v>
+      </c>
+      <c r="V27" s="23">
         <v>0.1</v>
       </c>
       <c r="W27" s="1">
@@ -22140,22 +21946,22 @@
       <c r="P28" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="32">
+      <c r="Q28" s="24">
         <v>0</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="32">
+      <c r="S28" s="24">
         <v>0.1</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
       </c>
-      <c r="U28" s="32">
-        <v>0</v>
-      </c>
-      <c r="V28" s="31">
+      <c r="U28" s="24">
+        <v>0</v>
+      </c>
+      <c r="V28" s="23">
         <v>0.1</v>
       </c>
       <c r="W28" s="1">
@@ -22189,2637 +21995,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="8.83203125" style="43"/>
-    <col min="6" max="6" width="8.83203125" style="44"/>
-    <col min="7" max="8" width="8.83203125" style="43"/>
-    <col min="9" max="9" width="8.83203125" style="44"/>
-    <col min="10" max="24" width="8.83203125" style="43"/>
+    <col min="1" max="5" width="8.83203125" style="27"/>
+    <col min="6" max="6" width="8.83203125" style="28"/>
+    <col min="7" max="8" width="8.83203125" style="27"/>
+    <col min="9" max="9" width="8.83203125" style="28"/>
+    <col min="10" max="24" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="Q1" s="44"/>
+      <c r="N1" s="28"/>
+      <c r="Q1" s="28"/>
       <c r="W1"/>
       <c r="X1"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="43">
-        <v>0</v>
-      </c>
-      <c r="B2" s="43">
+      <c r="A2" s="27">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27">
         <v>1.42</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="27">
         <v>1.66</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="27">
         <v>2.54</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="27">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="28">
         <v>1.72</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="27">
         <v>1.41</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="27">
         <v>1.46</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="28">
         <v>1.87</v>
       </c>
-      <c r="J2" s="43">
+      <c r="J2" s="27">
         <v>1.9</v>
       </c>
-      <c r="K2" s="43">
+      <c r="K2" s="27">
         <v>1.61</v>
       </c>
-      <c r="L2" s="43">
+      <c r="L2" s="27">
         <v>1.49</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="27">
         <v>1.06</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="Q2" s="44"/>
+      <c r="N2" s="28"/>
+      <c r="Q2" s="28"/>
       <c r="W2"/>
       <c r="X2"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="43">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="27">
         <v>0.22597800000000001</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="27">
         <v>0.22597800000000001</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="27">
         <v>1.6270100000000001</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="27">
         <v>1.6270100000000001</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="27">
         <v>2.1773699999999998</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="27">
         <v>2.0147499999999998</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="27">
         <v>2.0147499999999998</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="27">
         <v>5.3335900000000001</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="27">
         <v>10.139699999999999</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="27">
         <v>2.7644299999999999</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="27">
         <v>1.0342499999999999</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="27">
         <v>1.0342499999999999</v>
       </c>
-      <c r="N3" s="44"/>
-      <c r="Q3" s="44"/>
+      <c r="N3" s="28"/>
+      <c r="Q3" s="28"/>
       <c r="W3"/>
       <c r="X3"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="43">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="27">
         <v>7.7089099999999994E-2</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="27">
         <v>0.29205599999999998</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="27">
         <v>0.29741099999999998</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="27">
         <v>0.64671900000000004</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="27">
         <v>0.21612999999999999</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="27">
         <v>0.152306</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="27">
         <v>0.152306</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="27">
         <v>0.1244</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="27">
         <v>0.61289400000000005</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="27">
         <v>0.18826300000000001</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="27">
         <v>0.224717</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="27">
         <v>0.224717</v>
       </c>
-      <c r="N4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="46"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="15">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-      <c r="L3" s="15">
-        <v>0</v>
-      </c>
-      <c r="M3" s="15">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
-        <v>0</v>
-      </c>
-      <c r="O3" s="15">
-        <v>0</v>
-      </c>
-      <c r="P3" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>0</v>
-      </c>
-      <c r="R3" s="15">
-        <v>0</v>
-      </c>
-      <c r="S3" s="15">
-        <v>0</v>
-      </c>
-      <c r="T3" s="15">
-        <v>0</v>
-      </c>
-      <c r="U3" s="15">
-        <v>0</v>
-      </c>
-      <c r="V3" s="15">
-        <v>0</v>
-      </c>
-      <c r="W3" s="15">
-        <v>0</v>
-      </c>
-      <c r="X3" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <f>SUM(B3:Y3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="15">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4" s="15">
-        <v>0</v>
-      </c>
-      <c r="M4" s="15">
-        <v>0</v>
-      </c>
-      <c r="N4" s="15">
-        <v>0</v>
-      </c>
-      <c r="O4" s="15">
-        <v>0</v>
-      </c>
-      <c r="P4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>0</v>
-      </c>
-      <c r="R4" s="15">
-        <v>0</v>
-      </c>
-      <c r="S4" s="15">
-        <v>0</v>
-      </c>
-      <c r="T4" s="15">
-        <v>0</v>
-      </c>
-      <c r="U4" s="15">
-        <v>0</v>
-      </c>
-      <c r="V4" s="15">
-        <v>0</v>
-      </c>
-      <c r="W4" s="15">
-        <v>0</v>
-      </c>
-      <c r="X4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <f>SUM(B4:Y4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-      <c r="O5" s="15">
-        <v>0</v>
-      </c>
-      <c r="P5" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>0</v>
-      </c>
-      <c r="R5" s="15">
-        <v>0</v>
-      </c>
-      <c r="S5" s="15">
-        <v>0</v>
-      </c>
-      <c r="T5" s="15">
-        <v>0</v>
-      </c>
-      <c r="U5" s="15">
-        <v>0</v>
-      </c>
-      <c r="V5" s="15">
-        <v>0</v>
-      </c>
-      <c r="W5" s="15">
-        <v>0</v>
-      </c>
-      <c r="X5" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <f>SUM(B5:Y5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="15">
-        <v>0</v>
-      </c>
-      <c r="P6" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>0</v>
-      </c>
-      <c r="R6" s="15">
-        <v>0</v>
-      </c>
-      <c r="S6" s="15">
-        <v>0</v>
-      </c>
-      <c r="T6" s="15">
-        <v>0</v>
-      </c>
-      <c r="U6" s="15">
-        <v>0</v>
-      </c>
-      <c r="V6" s="15">
-        <v>0</v>
-      </c>
-      <c r="W6" s="15">
-        <v>0</v>
-      </c>
-      <c r="X6" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" ref="AB6:AB26" si="0">SUM(B6:Y6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="15">
-        <v>0</v>
-      </c>
-      <c r="P7" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>0</v>
-      </c>
-      <c r="R7" s="15">
-        <v>0</v>
-      </c>
-      <c r="S7" s="15">
-        <v>0</v>
-      </c>
-      <c r="T7" s="15">
-        <v>0</v>
-      </c>
-      <c r="U7" s="15">
-        <v>0</v>
-      </c>
-      <c r="V7" s="15">
-        <v>0</v>
-      </c>
-      <c r="W7" s="15">
-        <v>0</v>
-      </c>
-      <c r="X7" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="15">
-        <v>0</v>
-      </c>
-      <c r="M8" s="15">
-        <v>0</v>
-      </c>
-      <c r="N8" s="15">
-        <v>0</v>
-      </c>
-      <c r="O8" s="15">
-        <v>0</v>
-      </c>
-      <c r="P8" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>0</v>
-      </c>
-      <c r="R8" s="15">
-        <v>0</v>
-      </c>
-      <c r="S8" s="15">
-        <v>0</v>
-      </c>
-      <c r="T8" s="15">
-        <v>0</v>
-      </c>
-      <c r="U8" s="15">
-        <v>0</v>
-      </c>
-      <c r="V8" s="15">
-        <v>0</v>
-      </c>
-      <c r="W8" s="15">
-        <v>0</v>
-      </c>
-      <c r="X8" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
-      <c r="K9" s="15">
-        <v>0</v>
-      </c>
-      <c r="L9" s="15">
-        <v>0</v>
-      </c>
-      <c r="M9" s="15">
-        <v>0</v>
-      </c>
-      <c r="N9" s="15">
-        <v>0</v>
-      </c>
-      <c r="O9" s="15">
-        <v>0</v>
-      </c>
-      <c r="P9" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>0</v>
-      </c>
-      <c r="R9" s="15">
-        <v>0</v>
-      </c>
-      <c r="S9" s="15">
-        <v>0</v>
-      </c>
-      <c r="T9" s="15">
-        <v>0</v>
-      </c>
-      <c r="U9" s="15">
-        <v>0</v>
-      </c>
-      <c r="V9" s="15">
-        <v>0</v>
-      </c>
-      <c r="W9" s="15">
-        <v>0</v>
-      </c>
-      <c r="X9" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <v>0</v>
-      </c>
-      <c r="J10" s="15">
-        <v>0</v>
-      </c>
-      <c r="K10" s="15">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15">
-        <v>0</v>
-      </c>
-      <c r="M10" s="15">
-        <v>0</v>
-      </c>
-      <c r="N10" s="15">
-        <v>0</v>
-      </c>
-      <c r="O10" s="15">
-        <v>0</v>
-      </c>
-      <c r="P10" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>0</v>
-      </c>
-      <c r="R10" s="15">
-        <v>0</v>
-      </c>
-      <c r="S10" s="15">
-        <v>0</v>
-      </c>
-      <c r="T10" s="15">
-        <v>0</v>
-      </c>
-      <c r="U10" s="15">
-        <v>0</v>
-      </c>
-      <c r="V10" s="15">
-        <v>0</v>
-      </c>
-      <c r="W10" s="15">
-        <v>0</v>
-      </c>
-      <c r="X10" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="J11" s="15">
-        <v>0</v>
-      </c>
-      <c r="K11" s="15">
-        <v>0</v>
-      </c>
-      <c r="L11" s="15">
-        <v>0</v>
-      </c>
-      <c r="M11" s="15">
-        <v>0</v>
-      </c>
-      <c r="N11" s="15">
-        <v>0</v>
-      </c>
-      <c r="O11" s="15">
-        <v>0</v>
-      </c>
-      <c r="P11" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>0</v>
-      </c>
-      <c r="R11" s="15">
-        <v>0</v>
-      </c>
-      <c r="S11" s="15">
-        <v>0</v>
-      </c>
-      <c r="T11" s="15">
-        <v>0</v>
-      </c>
-      <c r="U11" s="15">
-        <v>0</v>
-      </c>
-      <c r="V11" s="15">
-        <v>0</v>
-      </c>
-      <c r="W11" s="15">
-        <v>0</v>
-      </c>
-      <c r="X11" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="15">
-        <v>0</v>
-      </c>
-      <c r="L12" s="15">
-        <v>0</v>
-      </c>
-      <c r="M12" s="15">
-        <v>0</v>
-      </c>
-      <c r="N12" s="15">
-        <v>0</v>
-      </c>
-      <c r="O12" s="15">
-        <v>0</v>
-      </c>
-      <c r="P12" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>0</v>
-      </c>
-      <c r="R12" s="15">
-        <v>0</v>
-      </c>
-      <c r="S12" s="15">
-        <v>0</v>
-      </c>
-      <c r="T12" s="15">
-        <v>0</v>
-      </c>
-      <c r="U12" s="15">
-        <v>0</v>
-      </c>
-      <c r="V12" s="15">
-        <v>0</v>
-      </c>
-      <c r="W12" s="15">
-        <v>0</v>
-      </c>
-      <c r="X12" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="31">
-        <v>0</v>
-      </c>
-      <c r="I13" s="32">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="15">
-        <v>0</v>
-      </c>
-      <c r="M13" s="15">
-        <v>0</v>
-      </c>
-      <c r="N13" s="15">
-        <v>0</v>
-      </c>
-      <c r="O13" s="42">
-        <v>0</v>
-      </c>
-      <c r="P13" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>0</v>
-      </c>
-      <c r="R13" s="15">
-        <v>0</v>
-      </c>
-      <c r="S13" s="15">
-        <v>0</v>
-      </c>
-      <c r="T13" s="15">
-        <v>0</v>
-      </c>
-      <c r="U13" s="15">
-        <v>0</v>
-      </c>
-      <c r="V13" s="15">
-        <v>0</v>
-      </c>
-      <c r="W13" s="15">
-        <v>0</v>
-      </c>
-      <c r="X13" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="H14" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="I14" s="32">
-        <v>0.25</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="15">
-        <v>0</v>
-      </c>
-      <c r="N14" s="15">
-        <v>0</v>
-      </c>
-      <c r="O14" s="42">
-        <v>0</v>
-      </c>
-      <c r="P14" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>0</v>
-      </c>
-      <c r="R14" s="15">
-        <v>0</v>
-      </c>
-      <c r="S14" s="15">
-        <v>0</v>
-      </c>
-      <c r="T14" s="15">
-        <v>0</v>
-      </c>
-      <c r="U14" s="15">
-        <v>0</v>
-      </c>
-      <c r="V14" s="15">
-        <v>0</v>
-      </c>
-      <c r="W14" s="15">
-        <v>0</v>
-      </c>
-      <c r="X14" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>0</v>
-      </c>
-      <c r="R15" s="15">
-        <v>0</v>
-      </c>
-      <c r="S15" s="15">
-        <v>0</v>
-      </c>
-      <c r="T15" s="15">
-        <v>0</v>
-      </c>
-      <c r="U15" s="15">
-        <v>0</v>
-      </c>
-      <c r="V15" s="15">
-        <v>0</v>
-      </c>
-      <c r="W15" s="15">
-        <v>0</v>
-      </c>
-      <c r="X15" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="15">
-        <v>0</v>
-      </c>
-      <c r="P16" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="15">
-        <v>0</v>
-      </c>
-      <c r="R16" s="15">
-        <v>0</v>
-      </c>
-      <c r="S16" s="15">
-        <v>0</v>
-      </c>
-      <c r="T16" s="15">
-        <v>0</v>
-      </c>
-      <c r="U16" s="15">
-        <v>0</v>
-      </c>
-      <c r="V16" s="15">
-        <v>0</v>
-      </c>
-      <c r="W16" s="15">
-        <v>0</v>
-      </c>
-      <c r="X16" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="31">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="32">
-        <v>0</v>
-      </c>
-      <c r="P17" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="15">
-        <v>0</v>
-      </c>
-      <c r="R17" s="15">
-        <v>0</v>
-      </c>
-      <c r="S17" s="15">
-        <v>0</v>
-      </c>
-      <c r="T17" s="15">
-        <v>0</v>
-      </c>
-      <c r="U17" s="15">
-        <v>0</v>
-      </c>
-      <c r="V17" s="15">
-        <v>0</v>
-      </c>
-      <c r="W17" s="15">
-        <v>0</v>
-      </c>
-      <c r="X17" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="31">
-        <v>0</v>
-      </c>
-      <c r="M18" s="31">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="15">
-        <v>0</v>
-      </c>
-      <c r="R18" s="15">
-        <v>0</v>
-      </c>
-      <c r="S18" s="15">
-        <v>0</v>
-      </c>
-      <c r="T18" s="15">
-        <v>0</v>
-      </c>
-      <c r="U18" s="15">
-        <v>0</v>
-      </c>
-      <c r="V18" s="15">
-        <v>0</v>
-      </c>
-      <c r="W18" s="15">
-        <v>0</v>
-      </c>
-      <c r="X18" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="47">
-        <v>0</v>
-      </c>
-      <c r="C19" s="47">
-        <v>0</v>
-      </c>
-      <c r="D19" s="47">
-        <v>0</v>
-      </c>
-      <c r="E19" s="47">
-        <v>0</v>
-      </c>
-      <c r="F19" s="47">
-        <v>0</v>
-      </c>
-      <c r="G19" s="47">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="H19" s="47">
-        <v>0.4</v>
-      </c>
-      <c r="I19" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="J19" s="47">
-        <v>0.2999</v>
-      </c>
-      <c r="K19" s="48">
-        <v>0</v>
-      </c>
-      <c r="L19" s="48">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="M19" s="48">
-        <v>0</v>
-      </c>
-      <c r="N19" s="47">
-        <v>0</v>
-      </c>
-      <c r="O19" s="47">
-        <v>0</v>
-      </c>
-      <c r="P19" s="47">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="Q19" s="47">
-        <v>0</v>
-      </c>
-      <c r="R19" s="15">
-        <v>0</v>
-      </c>
-      <c r="S19" s="15">
-        <v>0</v>
-      </c>
-      <c r="T19" s="15">
-        <v>0</v>
-      </c>
-      <c r="U19" s="15">
-        <v>0</v>
-      </c>
-      <c r="V19" s="15">
-        <v>0</v>
-      </c>
-      <c r="W19" s="15">
-        <v>0</v>
-      </c>
-      <c r="X19" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC19" s="49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="31">
-        <v>0.3</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="32">
-        <v>0</v>
-      </c>
-      <c r="S20" s="15">
-        <v>0</v>
-      </c>
-      <c r="T20" s="15">
-        <v>0</v>
-      </c>
-      <c r="U20" s="42">
-        <v>0</v>
-      </c>
-      <c r="V20" s="42">
-        <v>0</v>
-      </c>
-      <c r="W20" s="15">
-        <v>0</v>
-      </c>
-      <c r="X20" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="47">
-        <v>0</v>
-      </c>
-      <c r="C21" s="47">
-        <v>0</v>
-      </c>
-      <c r="D21" s="47">
-        <v>0</v>
-      </c>
-      <c r="E21" s="47">
-        <v>0</v>
-      </c>
-      <c r="F21" s="47">
-        <v>0</v>
-      </c>
-      <c r="G21" s="47">
-        <v>0.34989999999999999</v>
-      </c>
-      <c r="H21" s="47">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="I21" s="47">
-        <v>0</v>
-      </c>
-      <c r="J21" s="47">
-        <v>0</v>
-      </c>
-      <c r="K21" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="L21" s="47">
-        <v>0.1</v>
-      </c>
-      <c r="M21" s="47">
-        <v>0</v>
-      </c>
-      <c r="N21" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="O21" s="47">
-        <v>0</v>
-      </c>
-      <c r="P21" s="47">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="Q21" s="48">
-        <v>0</v>
-      </c>
-      <c r="R21" s="47">
-        <v>0</v>
-      </c>
-      <c r="S21" s="47">
-        <v>0</v>
-      </c>
-      <c r="T21" s="15">
-        <v>0</v>
-      </c>
-      <c r="U21" s="41">
-        <v>0</v>
-      </c>
-      <c r="V21" s="15">
-        <v>0</v>
-      </c>
-      <c r="W21" s="15">
-        <v>0</v>
-      </c>
-      <c r="X21" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="49">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AC21" s="49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="47">
-        <v>0</v>
-      </c>
-      <c r="C22" s="47">
-        <v>0</v>
-      </c>
-      <c r="D22" s="47">
-        <v>0</v>
-      </c>
-      <c r="E22" s="47">
-        <v>0</v>
-      </c>
-      <c r="F22" s="47">
-        <v>0.6</v>
-      </c>
-      <c r="G22" s="47">
-        <v>0</v>
-      </c>
-      <c r="H22" s="47">
-        <v>0</v>
-      </c>
-      <c r="I22" s="47">
-        <v>0</v>
-      </c>
-      <c r="J22" s="47">
-        <v>0</v>
-      </c>
-      <c r="K22" s="47">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="L22" s="48">
-        <v>0</v>
-      </c>
-      <c r="M22" s="48">
-        <v>0</v>
-      </c>
-      <c r="N22" s="47">
-        <f>0.1999+0.05</f>
-        <v>0.24990000000000001</v>
-      </c>
-      <c r="O22" s="47">
-        <v>0</v>
-      </c>
-      <c r="P22" s="48">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="Q22" s="47">
-        <v>0</v>
-      </c>
-      <c r="R22" s="47">
-        <v>0</v>
-      </c>
-      <c r="S22" s="47">
-        <v>0.15</v>
-      </c>
-      <c r="T22" s="47">
-        <v>0</v>
-      </c>
-      <c r="U22" s="15">
-        <v>0</v>
-      </c>
-      <c r="V22" s="15">
-        <v>0</v>
-      </c>
-      <c r="W22" s="15">
-        <v>0</v>
-      </c>
-      <c r="X22" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="47">
-        <v>0</v>
-      </c>
-      <c r="C23" s="47">
-        <v>0</v>
-      </c>
-      <c r="D23" s="47">
-        <v>0</v>
-      </c>
-      <c r="E23" s="47">
-        <v>0</v>
-      </c>
-      <c r="F23" s="47">
-        <v>0</v>
-      </c>
-      <c r="G23" s="47">
-        <v>0</v>
-      </c>
-      <c r="H23" s="47">
-        <v>0</v>
-      </c>
-      <c r="I23" s="47">
-        <v>0</v>
-      </c>
-      <c r="J23" s="47">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="K23" s="48">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="L23" s="48">
-        <v>0</v>
-      </c>
-      <c r="M23" s="48">
-        <v>0</v>
-      </c>
-      <c r="N23" s="47">
-        <v>0.65</v>
-      </c>
-      <c r="O23" s="47">
-        <v>0</v>
-      </c>
-      <c r="P23" s="48">
-        <v>0.34989999999999999</v>
-      </c>
-      <c r="Q23" s="47">
-        <v>0</v>
-      </c>
-      <c r="R23" s="47">
-        <v>0</v>
-      </c>
-      <c r="S23" s="47">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="T23" s="47">
-        <v>0</v>
-      </c>
-      <c r="U23" s="47">
-        <v>0</v>
-      </c>
-      <c r="V23" s="15">
-        <v>0</v>
-      </c>
-      <c r="W23" s="15">
-        <v>0</v>
-      </c>
-      <c r="X23" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC23" s="49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="15">
-        <v>0</v>
-      </c>
-      <c r="X24" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="32">
-        <v>0</v>
-      </c>
-      <c r="R25" s="31">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25" s="32">
-        <v>0</v>
-      </c>
-      <c r="V25" s="32">
-        <v>0</v>
-      </c>
-      <c r="W25" s="1">
-        <v>0</v>
-      </c>
-      <c r="X25" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="47">
-        <v>0</v>
-      </c>
-      <c r="C26" s="47">
-        <v>0</v>
-      </c>
-      <c r="D26" s="47">
-        <v>0</v>
-      </c>
-      <c r="E26" s="47">
-        <v>0</v>
-      </c>
-      <c r="F26" s="47">
-        <v>0</v>
-      </c>
-      <c r="G26" s="47">
-        <v>0</v>
-      </c>
-      <c r="H26" s="47">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="I26" s="47">
-        <v>0</v>
-      </c>
-      <c r="J26" s="47">
-        <v>0.19989999999999999</v>
-      </c>
-      <c r="K26" s="47">
-        <v>0.1</v>
-      </c>
-      <c r="L26" s="47">
-        <v>0.15</v>
-      </c>
-      <c r="M26" s="47">
-        <v>0.05</v>
-      </c>
-      <c r="N26" s="47">
-        <v>0.1</v>
-      </c>
-      <c r="O26" s="47">
-        <v>0.05</v>
-      </c>
-      <c r="P26" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="Q26" s="48">
-        <v>0</v>
-      </c>
-      <c r="R26" s="47">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="S26" s="48">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="T26" s="47">
-        <v>0</v>
-      </c>
-      <c r="U26" s="48">
-        <v>0</v>
-      </c>
-      <c r="V26" s="47">
-        <v>0.1</v>
-      </c>
-      <c r="W26" s="47">
-        <v>0</v>
-      </c>
-      <c r="X26" s="47">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC26" s="49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q27" s="32">
-        <v>0</v>
-      </c>
-      <c r="R27" s="1">
-        <v>0</v>
-      </c>
-      <c r="S27" s="32">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="U27" s="32">
-        <v>0</v>
-      </c>
-      <c r="V27" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="W27" s="1">
-        <v>0</v>
-      </c>
-      <c r="X27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="Z27" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <f>SUM(B27:AA27)</f>
-        <v>1</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Q28" s="32">
-        <v>0</v>
-      </c>
-      <c r="R28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28" s="32">
-        <v>0</v>
-      </c>
-      <c r="V28" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="W28" s="1">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <f>SUM(B28:AA28)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>105</v>
-      </c>
+      <c r="N4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
